--- a/Reports/heart/heart_tabfairgan_10_05.xlsx
+++ b/Reports/heart/heart_tabfairgan_10_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0566</v>
+        <v>-0.0417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0751</v>
+        <v>-0.0417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8695000000000001</v>
+        <v>0.9122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.3657</v>
+        <v>1.0067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2557</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.5881</v>
+        <v>1.0952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0217</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0398</v>
+        <v>1.1339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.185</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0008</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6696</v>
+        <v>0.6228</v>
       </c>
     </row>
     <row r="13">
